--- a/Docs/Lab1/Lab01_CheckLists/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_CheckLists/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AN3\vvss\Docs\Lab1\Lab01_CheckLists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8548BD89-7AB7-4DB9-9581-C89588E41689}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F0F70E-5F7D-4F75-A37B-95E83D301282}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -132,9 +132,6 @@
     <t>A05</t>
   </si>
   <si>
-    <t>ClassException nu este prinsa niciunde. Astfel, in cazul introducerii unor informatii eronate, executia aplicatiei se opreste.</t>
-  </si>
-  <si>
     <t>A01</t>
   </si>
   <si>
@@ -165,13 +162,25 @@
     <t>1.ClassRepositoryMock, 116.                       2.ClasaRepositoryMock, 119</t>
   </si>
   <si>
-    <t>Se poate efectua impartire la 0, in cazul in care elevul nu are nicio nota la acea materie. Totodata, din aceasta cauza, nu se poate calcula media semestriala a elevului; un elev este corigent daca are media mai mica decat 4.5, nu mai mare sau egala.</t>
-  </si>
-  <si>
-    <t>Nu</t>
-  </si>
-  <si>
     <t>ClassException ar trebui plasata intr-un pachet nou numit exception nu in utils</t>
+  </si>
+  <si>
+    <t>ClassException nu este prinsa. Astfel, in cazul introducerii unor informatii eronate, executia aplicatiei se opreste.</t>
+  </si>
+  <si>
+    <t>ClassRepositoryMock a fost redenumita in ClassRepositoryImplementation</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>Se poate efectua impartire la 0, in cazul in care elevul nu are nicio nota la acea materie. Totodata, din aceasta cauza, nu se poate calcula media semestriala a elevului; u</t>
+  </si>
+  <si>
+    <t>un elev este corigent daca are media mai mica decat 4.5, nu mai mare sau egala.</t>
+  </si>
+  <si>
+    <t>30 min</t>
   </si>
 </sst>
 </file>
@@ -737,8 +746,8 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1002,7 +1011,9 @@
         <v>8</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1024,8 +1035,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>29</v>
@@ -1123,36 +1134,40 @@
         <v>2</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="20">
         <f>B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="20">
         <f t="shared" ref="B13:B26" si="0">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
@@ -1302,7 +1317,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,31 +1395,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1413,13 +1428,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
